--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s1_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.7639834467185</v>
+        <v>841.8176034587436</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.47398344673753</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.685690984262621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.685690984262621</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.8699999999809</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>263.42</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.31116002552197</v>
+        <v>16.55358700954922</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.70934855097198</v>
+        <v>18.1553984840992</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.75054662682655</v>
+        <v>2.71773803005367</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.637905061731658</v>
+        <v>5.206834251576655</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.46828465688022</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9699999999994</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8549999999992</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2549999999993</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4799999999999</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>209.044999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>202.884999999998</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>190.6849999999987</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>206.6699999999987</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>209.5699999999984</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>164.6049999999995</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>164.35</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>149.3149999999995</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>160.8549999999995</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>163.7349999999995</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.8599999999999</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.3400000000002</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.0549999999997</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.5099999999998</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000004</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>209.0449999999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>202.8849999999974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>190.6849999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>206.6699999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>209.569999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.8599999999999</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.3400000000002</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.0549999999997</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.5099999999998</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000004</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.044999999997344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.884999999997405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1497,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.669999999998367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.569999999998004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.859999999999927</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.05499999999967</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.509999999999746</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,10 +2062,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1948,10 +2073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1959,45 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
